--- a/biology/Histoire de la zoologie et de la botanique/Cecil_Louis_Wilton/Cecil_Louis_Wilton.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Cecil_Louis_Wilton/Cecil_Louis_Wilton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cecil Louis Wilton est un arachnologiste néo-zélandais.
 C'est un spécialiste de l'aranéofaune néo-zélandaise.
@@ -512,7 +524,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hexathele wiltoni Forster, 1968
 Kapanga wiltoni Forster, 1970
@@ -550,7 +564,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ahua Forster &amp; Wilton, 1973
@@ -664,7 +680,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Wilton, 1946 : A new spider of the family Archaeidae from New Zealand. Dominion Museum Records in Entomology, vol. 1, p. 19-26.
 Wilton, 1968 : The spiders of New Zealand. Part II. Migidae. Otago Museum Bulletin, vol. 2, p. 73-126.
